--- a/notebooks/MAP3K14/input/MAP3K14_individuals.xlsx
+++ b/notebooks/MAP3K14/input/MAP3K14_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/MAP3K14/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FD35CD-BF96-864D-ABC9-644A15B2EE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE17F3C-B5E4-AD44-A4F6-CEA2FDACAF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3780" yWindow="10200" windowWidth="28040" windowHeight="17440" xr2:uid="{D05C0C58-ADF0-7A43-8D56-53AA88BE3EA7}"/>
   </bookViews>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0DAAE8-6B48-A040-875F-8B3E4346AE1C}">
   <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/notebooks/MAP3K14/input/MAP3K14_individuals.xlsx
+++ b/notebooks/MAP3K14/input/MAP3K14_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/MAP3K14/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE17F3C-B5E4-AD44-A4F6-CEA2FDACAF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C26CE45-F332-2F45-BC42-EC00024B9631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="10200" windowWidth="28040" windowHeight="17440" xr2:uid="{D05C0C58-ADF0-7A43-8D56-53AA88BE3EA7}"/>
+    <workbookView xWindow="3660" yWindow="10260" windowWidth="28040" windowHeight="17440" xr2:uid="{D05C0C58-ADF0-7A43-8D56-53AA88BE3EA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
   <si>
     <t>PMID</t>
   </si>
@@ -83,9 +83,6 @@
     <t>str</t>
   </si>
   <si>
-    <t>optional str</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -267,15 +264,41 @@
   </si>
   <si>
     <t>c.1033G&gt;A</t>
+  </si>
+  <si>
+    <t>CURIE</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>HGNC_id</t>
+  </si>
+  <si>
+    <t>gene_symbol</t>
+  </si>
+  <si>
+    <t>MAP3K14</t>
+  </si>
+  <si>
+    <t>HGNC:6853</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -290,7 +313,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -298,14 +321,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -325,9 +366,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -365,7 +406,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -471,7 +512,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -613,7 +654,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -621,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0DAAE8-6B48-A040-875F-8B3E4346AE1C}">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G5" sqref="G5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,7 +673,7 @@
     <col min="2" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -651,85 +692,91 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
       <c r="Q1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="R1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S1" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="T1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="V1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="X1" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="Y1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="Z1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AA1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AB1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="AC1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AD1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AE1" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -738,16 +785,16 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -756,331 +803,355 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
-        <v>69</v>
-      </c>
-      <c r="T2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" t="s">
-        <v>71</v>
-      </c>
-      <c r="V2" t="s">
-        <v>73</v>
-      </c>
-      <c r="W2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" t="s">
         <v>31</v>
       </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W3" t="s">
-        <v>18</v>
-      </c>
-      <c r="X3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>41</v>
+      <c r="S4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:33" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4" t="s">
-        <v>18</v>
-      </c>
-      <c r="X4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" t="s">
-        <v>76</v>
       </c>
       <c r="J5" t="s">
         <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
         <v>74</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="S5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W5" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="X5" t="s">
+        <v>40</v>
       </c>
       <c r="Y5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AA5" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AB5" t="s">
-        <v>62</v>
+        <v>40</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
